--- a/Резы/Респа для ИТ-81б на 2019 год.xlsx
+++ b/Резы/Респа для ИТ-81б на 2019 год.xlsx
@@ -944,7 +944,7 @@
           <t>III
 405
 210
-212</t>
+329</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -1299,7 +1299,8 @@
       <c r="H17" s="16" t="n"/>
       <c r="I17" s="11" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>АКТ_зал
+329</t>
         </is>
       </c>
       <c r="J17" s="11" t="inlineStr">
@@ -1737,7 +1738,7 @@
         <is>
           <t>405
 210
-212</t>
+329</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
@@ -2457,7 +2458,7 @@
         <is>
           <t>405
 210
-212</t>
+329</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -2810,7 +2811,7 @@
         </is>
       </c>
       <c r="I18" s="11" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J18" s="11" t="inlineStr">
         <is>
@@ -3069,7 +3070,7 @@
     <col width="93.8" customWidth="1" min="5" max="5"/>
     <col width="93.8" customWidth="1" min="6" max="6"/>
     <col width="89.45" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
     <col width="26.5" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
@@ -3308,8 +3309,8 @@
       <c r="H7" s="3" t="inlineStr">
         <is>
           <t>405
-210
-212</t>
+210, 212
+329, 331</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
@@ -3640,8 +3641,10 @@
         </is>
       </c>
       <c r="G18" s="15" t="n"/>
-      <c r="H18" s="3" t="n">
-        <v>401</v>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>401, 331</t>
+        </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
@@ -3668,7 +3671,7 @@
       <c r="F19" s="14" t="n"/>
       <c r="G19" s="16" t="n"/>
       <c r="H19" s="11" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I19" s="11" t="inlineStr">
         <is>

--- a/Резы/Респа для ИТ-81б на 2019 год.xlsx
+++ b/Резы/Респа для ИТ-81б на 2019 год.xlsx
@@ -65,15 +65,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -114,24 +114,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -159,42 +159,42 @@
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -229,14 +229,14 @@
       <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
@@ -684,7 +684,7 @@
     <col width="35.8" customWidth="1" min="7" max="7"/>
     <col width="60.45" customWidth="1" min="8" max="8"/>
     <col width="17" customWidth="1" min="9" max="9"/>
-    <col width="29.5" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="J16" s="9" t="n"/>
     </row>
-    <row r="17" ht="51" customHeight="1">
+    <row r="17" ht="68" customHeight="1">
       <c r="A17" s="10" t="n"/>
       <c r="B17" s="11" t="n">
         <v>4</v>
@@ -1286,27 +1286,39 @@
       </c>
       <c r="D17" s="12" t="inlineStr">
         <is>
-          <t>Открытый час куратора: рейд (общ)</t>
-        </is>
-      </c>
-      <c r="E17" s="16" t="n"/>
+          <t>Открытый час куратора: рейд (общ)
+ЧАС куратора: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E17" s="12" t="inlineStr">
+        <is>
+          <t>ЧАС куратора: рейд (общ)</t>
+        </is>
+      </c>
       <c r="F17" s="12" t="inlineStr">
         <is>
-          <t>Инженерная и компьютерная графика: ПР (3)</t>
+          <t>Инженерная и компьютерная графика: ПР (3)
+ЧАС куратора: рейд (общ)</t>
         </is>
       </c>
       <c r="G17" s="14" t="n"/>
-      <c r="H17" s="16" t="n"/>
+      <c r="H17" s="12" t="inlineStr">
+        <is>
+          <t>ЧАС куратора: рейд (общ)</t>
+        </is>
+      </c>
       <c r="I17" s="11" t="inlineStr">
         <is>
-          <t>АКТ_зал
-329</t>
+          <t>ХЗ
+329
+403</t>
         </is>
       </c>
       <c r="J17" s="11" t="inlineStr">
         <is>
-          <t>Преображенский Ф.Ф.
-Кунавина Н.Е.</t>
+          <t>Мерзоцид Г.Ч.
+Кунавина Н.Е.
+Плотникова Е.Л.</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1973,170 +1985,183 @@
       </c>
     </row>
     <row r="15" ht="34" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="11" t="n">
+      <c r="A15" s="7" t="n"/>
+      <c r="B15" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C15" s="11" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D15" s="12" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>Основы построения инфокоммуникационных систем и сетей: ПР (общ)</t>
         </is>
       </c>
-      <c r="E15" s="13" t="n"/>
-      <c r="F15" s="13" t="n"/>
-      <c r="G15" s="14" t="n"/>
-      <c r="H15" s="11" t="n">
+      <c r="E15" s="5" t="n"/>
+      <c r="F15" s="5" t="n"/>
+      <c r="G15" s="6" t="n"/>
+      <c r="H15" s="3" t="n">
         <v>401</v>
       </c>
-      <c r="I15" s="11" t="inlineStr">
+      <c r="I15" s="3" t="inlineStr">
         <is>
           <t>Кусайкин Д.В.</t>
         </is>
       </c>
     </row>
     <row r="16" ht="34" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" s="11" t="inlineStr">
+        <is>
+          <t>14:20 - 15:55</t>
+        </is>
+      </c>
+      <c r="D16" s="12" t="inlineStr">
+        <is>
+          <t>ЧАС куратора: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E16" s="13" t="n"/>
+      <c r="F16" s="13" t="n"/>
+      <c r="G16" s="14" t="n"/>
+      <c r="H16" s="11" t="n">
+        <v>403</v>
+      </c>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Плотникова Е.Л.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="34" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>ПТ</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B17" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
-        </is>
-      </c>
-      <c r="D16" s="15" t="n"/>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>Физика (спецглавы): ЛБ (2)</t>
-        </is>
-      </c>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="6" t="n"/>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>ФЗК_зал</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>Кандазали Л.С.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="34" customHeight="1">
-      <c r="A17" s="7" t="n"/>
-      <c r="B17" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>10:15 - 11:50</t>
         </is>
       </c>
       <c r="D17" s="15" t="n"/>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>Математический анализ: ПР (общ)</t>
+          <t>Физика (спецглавы): ЛБ (2)</t>
         </is>
       </c>
       <c r="F17" s="5" t="n"/>
       <c r="G17" s="6" t="n"/>
-      <c r="H17" s="3" t="n">
-        <v>407</v>
-      </c>
-      <c r="I17" s="9" t="n"/>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>ФЗК_зал</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>Кандазали Л.С.</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="34" customHeight="1">
       <c r="A18" s="7" t="n"/>
       <c r="B18" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>12:35 - 14:10</t>
+          <t>10:15 - 11:50</t>
         </is>
       </c>
       <c r="D18" s="15" t="n"/>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>Физика (спецглавы): ПР (общ)</t>
+          <t>Математический анализ: ПР (общ)</t>
         </is>
       </c>
       <c r="F18" s="5" t="n"/>
       <c r="G18" s="6" t="n"/>
       <c r="H18" s="3" t="n">
+        <v>407</v>
+      </c>
+      <c r="I18" s="9" t="n"/>
+    </row>
+    <row r="19" ht="34" customHeight="1">
+      <c r="A19" s="7" t="n"/>
+      <c r="B19" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>12:35 - 14:10</t>
+        </is>
+      </c>
+      <c r="D19" s="15" t="n"/>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>Физика (спецглавы): ПР (общ)</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="n"/>
+      <c r="G19" s="6" t="n"/>
+      <c r="H19" s="3" t="n">
         <v>237</v>
       </c>
-      <c r="I18" s="3" t="inlineStr">
+      <c r="I19" s="3" t="inlineStr">
         <is>
           <t>Пилипенко Г.И.</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="34" customHeight="1">
-      <c r="A19" s="10" t="n"/>
-      <c r="B19" s="11" t="n">
+    <row r="20" ht="34" customHeight="1">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C19" s="11" t="inlineStr">
+      <c r="C20" s="11" t="inlineStr">
         <is>
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D19" s="16" t="n"/>
-      <c r="E19" s="12" t="inlineStr">
+      <c r="D20" s="16" t="n"/>
+      <c r="E20" s="12" t="inlineStr">
         <is>
           <t>Элективные дисциплины по физической культуре и спорту: ПР (1)</t>
         </is>
       </c>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="14" t="n"/>
-      <c r="H19" s="11" t="inlineStr">
+      <c r="F20" s="13" t="n"/>
+      <c r="G20" s="14" t="n"/>
+      <c r="H20" s="11" t="inlineStr">
         <is>
           <t>ФЗК_зал</t>
         </is>
       </c>
-      <c r="I19" s="11" t="inlineStr">
+      <c r="I20" s="11" t="inlineStr">
         <is>
           <t>Чащихин А.В.</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="34" customHeight="1">
-      <c r="A20" s="2" t="inlineStr">
+    <row r="21" ht="34" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>СБ</t>
         </is>
       </c>
-      <c r="B20" s="17" t="n">
+      <c r="B21" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="17" t="inlineStr">
+      <c r="C21" s="17" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
-        </is>
-      </c>
-      <c r="D20" s="15" t="n"/>
-      <c r="H20" s="17" t="n"/>
-      <c r="I20" s="17" t="n"/>
-    </row>
-    <row r="21" ht="34" customHeight="1">
-      <c r="A21" s="7" t="n"/>
-      <c r="B21" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" s="17" t="inlineStr">
-        <is>
-          <t>10:15 - 11:50</t>
         </is>
       </c>
       <c r="D21" s="15" t="n"/>
@@ -2144,34 +2169,48 @@
       <c r="I21" s="17" t="n"/>
     </row>
     <row r="22" ht="34" customHeight="1">
-      <c r="A22" s="10" t="n"/>
-      <c r="B22" s="11" t="n">
+      <c r="A22" s="7" t="n"/>
+      <c r="B22" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="17" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D22" s="15" t="n"/>
+      <c r="H22" s="17" t="n"/>
+      <c r="I22" s="17" t="n"/>
+    </row>
+    <row r="23" ht="34" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C22" s="11" t="inlineStr">
+      <c r="C23" s="11" t="inlineStr">
         <is>
           <t>12:00 - 13:40</t>
         </is>
       </c>
-      <c r="D22" s="16" t="n"/>
-      <c r="E22" s="18" t="n"/>
-      <c r="F22" s="18" t="n"/>
-      <c r="G22" s="12" t="inlineStr">
+      <c r="D23" s="16" t="n"/>
+      <c r="E23" s="18" t="n"/>
+      <c r="F23" s="18" t="n"/>
+      <c r="G23" s="12" t="inlineStr">
         <is>
           <t>Иностранный язык: ПР (3)</t>
         </is>
       </c>
-      <c r="H22" s="11" t="n">
+      <c r="H23" s="11" t="n">
         <v>205</v>
       </c>
-      <c r="I22" s="11" t="inlineStr">
+      <c r="I23" s="11" t="inlineStr">
         <is>
           <t>Миннегалиева Т.В.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D4:G4"/>
@@ -2186,18 +2225,19 @@
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="D15:G15"/>
-    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="D16:G16"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="E20:G20"/>
     <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:F23"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A2:A5"/>
@@ -2212,7 +2252,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -2230,7 +2270,7 @@
     <col width="38.7" customWidth="1" min="5" max="5"/>
     <col width="29.5" customWidth="1" min="6" max="6"/>
     <col width="93.8" customWidth="1" min="7" max="7"/>
-    <col width="60.45" customWidth="1" min="8" max="8"/>
+    <col width="89.45" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="26.5" customWidth="1" min="10" max="10"/>
   </cols>
@@ -2361,128 +2401,123 @@
       </c>
     </row>
     <row r="4" ht="34" customHeight="1">
-      <c r="A4" s="10" t="n"/>
-      <c r="B4" s="11" t="n">
+      <c r="A4" s="7" t="n"/>
+      <c r="B4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D4" s="12" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Физика: ПР (общ)</t>
         </is>
       </c>
-      <c r="E4" s="13" t="n"/>
-      <c r="F4" s="14" t="n"/>
-      <c r="G4" s="16" t="n"/>
-      <c r="H4" s="12" t="inlineStr">
+      <c r="E4" s="5" t="n"/>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" s="15" t="n"/>
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>Физика (спецглавы) : ПР (общ)</t>
         </is>
       </c>
-      <c r="I4" s="11" t="n">
+      <c r="I4" s="3" t="n">
         <v>237</v>
       </c>
-      <c r="J4" s="11" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>Пилипенко Г.И.</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="51" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+    <row r="5" ht="34" customHeight="1">
+      <c r="A5" s="10" t="n"/>
+      <c r="B5" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>14:20 - 15:55</t>
+        </is>
+      </c>
+      <c r="D5" s="16" t="n"/>
+      <c r="E5" s="18" t="n"/>
+      <c r="F5" s="18" t="n"/>
+      <c r="G5" s="18" t="n"/>
+      <c r="H5" s="12" t="inlineStr">
+        <is>
+          <t>Элективные дисциплины по физической культуре и спорту: ПР (2)</t>
+        </is>
+      </c>
+      <c r="I5" s="11" t="inlineStr">
+        <is>
+          <t>ФЗК_зал</t>
+        </is>
+      </c>
+      <c r="J5" s="11" t="inlineStr">
+        <is>
+          <t>Чащихин А.В.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="51" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>ВТ</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>Информатика: ПР (1)
 Информатика: ЛБ (2)</t>
         </is>
       </c>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="6" t="n"/>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>Информатика: ПР (1)</t>
         </is>
       </c>
-      <c r="H5" s="6" t="n"/>
-      <c r="I5" s="3" t="inlineStr">
+      <c r="H6" s="6" t="n"/>
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>310
 314</t>
         </is>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>Бикбулатова Н.Г.
 Обвинцев О.А.</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="68" customHeight="1">
-      <c r="A6" s="7" t="n"/>
-      <c r="B6" s="3" t="n">
+    <row r="7" ht="68" customHeight="1">
+      <c r="A7" s="7" t="n"/>
+      <c r="B7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Иностраный язык: ПР (1)
 Инженерная и компьютерная графика: ПР (2)
 Инженерная и компьютерная графика: ПР (3)</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="5" t="n"/>
-      <c r="G6" s="5" t="n"/>
-      <c r="H6" s="6" t="n"/>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>405
-210
-329</t>
-        </is>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>Новокшенова Р.Г.
-Молокова Г.Ф.
-Кунавина Н.Е.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1">
-      <c r="A7" s="7" t="n"/>
-      <c r="B7" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>12:35 - 14:10</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Инженерная и компьютерная графика: ПР (1)
-Физика: ЛБ (3)</t>
         </is>
       </c>
       <c r="E7" s="5" t="n"/>
@@ -2491,148 +2526,155 @@
       <c r="H7" s="6" t="n"/>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>331
-410</t>
+          <t>405
+210
+329</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
-          <t>Молокова Г.Ф.
-Кандазали Л.С.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="34" customHeight="1">
+          <t>Новокшенова Р.Г.
+Молокова Г.Ф.
+Кунавина Н.Е.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="51" customHeight="1">
       <c r="A8" s="7" t="n"/>
       <c r="B8" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>14:20 - 15:55</t>
+          <t>12:35 - 14:10</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>Физика: ЛБ (1)</t>
+          <t>Инженерная и компьютерная графика: ПР (1)
+Физика: ЛБ (3)</t>
         </is>
       </c>
       <c r="E8" s="5" t="n"/>
       <c r="F8" s="5" t="n"/>
       <c r="G8" s="5" t="n"/>
       <c r="H8" s="6" t="n"/>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>331
+410</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>Молокова Г.Ф.
+Кандазали Л.С.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="34" customHeight="1">
+      <c r="A9" s="7" t="n"/>
+      <c r="B9" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>14:20 - 15:55</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>Физика: ЛБ (1)</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="n"/>
+      <c r="F9" s="5" t="n"/>
+      <c r="G9" s="5" t="n"/>
+      <c r="H9" s="6" t="n"/>
+      <c r="I9" s="3" t="n">
         <v>412</v>
       </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>Кандазали Л.С.</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="34" customHeight="1">
-      <c r="A9" s="10" t="n"/>
-      <c r="B9" s="11" t="n">
+    <row r="10" ht="34" customHeight="1">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C9" s="11" t="inlineStr">
+      <c r="C10" s="11" t="inlineStr">
         <is>
           <t>16:05 - 17:40</t>
         </is>
       </c>
-      <c r="D9" s="16" t="n"/>
-      <c r="E9" s="18" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="18" t="n"/>
-      <c r="H9" s="12" t="inlineStr">
+      <c r="D10" s="16" t="n"/>
+      <c r="E10" s="18" t="n"/>
+      <c r="F10" s="18" t="n"/>
+      <c r="G10" s="18" t="n"/>
+      <c r="H10" s="12" t="inlineStr">
         <is>
           <t>Инженерная и компьютерная графика: ПР (1)</t>
         </is>
       </c>
-      <c r="I9" s="11" t="n">
+      <c r="I10" s="11" t="n">
         <v>331</v>
       </c>
-      <c r="J9" s="11" t="inlineStr">
+      <c r="J10" s="11" t="inlineStr">
         <is>
           <t>Молокова Г.Ф.</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="34" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
+    <row r="11" ht="34" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>СР</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>Физика (спецглавы): лекция (общ)</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="6" t="n"/>
-      <c r="H10" s="15" t="n"/>
-      <c r="I10" s="3" t="inlineStr">
-        <is>
-          <t>III</t>
-        </is>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
-        <is>
-          <t>Пилипенко Г.И.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="34" customHeight="1">
-      <c r="A11" s="7" t="n"/>
-      <c r="B11" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>10:15 - 11:50</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="inlineStr">
-        <is>
-          <t>Дискретная математика: ПР (общ)</t>
         </is>
       </c>
       <c r="E11" s="5" t="n"/>
       <c r="F11" s="5" t="n"/>
       <c r="G11" s="6" t="n"/>
       <c r="H11" s="15" t="n"/>
-      <c r="I11" s="3" t="n">
-        <v>208</v>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
-          <t>Тутынина О.И.</t>
+          <t>Пилипенко Г.И.</t>
         </is>
       </c>
     </row>
     <row r="12" ht="34" customHeight="1">
       <c r="A12" s="7" t="n"/>
       <c r="B12" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>12:35 - 14:10</t>
+          <t>10:15 - 11:50</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>Физика: ЛБ (2)</t>
+          <t>Дискретная математика: ПР (общ)</t>
         </is>
       </c>
       <c r="E12" s="5" t="n"/>
@@ -2640,142 +2682,142 @@
       <c r="G12" s="6" t="n"/>
       <c r="H12" s="15" t="n"/>
       <c r="I12" s="3" t="n">
-        <v>412</v>
+        <v>208</v>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
-          <t>Кандазали Л.С.</t>
+          <t>Тутынина О.И.</t>
         </is>
       </c>
     </row>
     <row r="13" ht="34" customHeight="1">
       <c r="A13" s="7" t="n"/>
       <c r="B13" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>14:20 - 15:55</t>
-        </is>
-      </c>
-      <c r="D13" s="15" t="n"/>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>Иностранный язык: ПР (2)</t>
-        </is>
-      </c>
-      <c r="F13" s="19" t="n"/>
-      <c r="G13" s="20" t="n"/>
+          <t>12:35 - 14:10</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>Физика: ЛБ (2)</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="n"/>
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="6" t="n"/>
       <c r="H13" s="15" t="n"/>
       <c r="I13" s="3" t="n">
+        <v>412</v>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>Кандазали Л.С.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="34" customHeight="1">
+      <c r="A14" s="7" t="n"/>
+      <c r="B14" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>14:20 - 15:55</t>
+        </is>
+      </c>
+      <c r="D14" s="15" t="n"/>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>Иностранный язык: ПР (2)</t>
+        </is>
+      </c>
+      <c r="F14" s="19" t="n"/>
+      <c r="G14" s="20" t="n"/>
+      <c r="H14" s="15" t="n"/>
+      <c r="I14" s="3" t="n">
         <v>205</v>
       </c>
-      <c r="J13" s="3" t="inlineStr">
+      <c r="J14" s="3" t="inlineStr">
         <is>
           <t>Дубровина Н.А.</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="34" customHeight="1">
-      <c r="A14" s="10" t="n"/>
-      <c r="B14" s="11" t="n">
+    <row r="15" ht="34" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C14" s="11" t="inlineStr">
+      <c r="C15" s="11" t="inlineStr">
         <is>
           <t>16:05 - 17:40</t>
         </is>
       </c>
-      <c r="D14" s="16" t="n"/>
-      <c r="E14" s="21" t="n"/>
-      <c r="F14" s="18" t="n"/>
-      <c r="G14" s="22" t="n"/>
-      <c r="H14" s="16" t="n"/>
-      <c r="I14" s="10" t="n"/>
-      <c r="J14" s="10" t="n"/>
-    </row>
-    <row r="15" ht="51" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="D15" s="16" t="n"/>
+      <c r="E15" s="21" t="n"/>
+      <c r="F15" s="18" t="n"/>
+      <c r="G15" s="22" t="n"/>
+      <c r="H15" s="16" t="n"/>
+      <c r="I15" s="10" t="n"/>
+      <c r="J15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="51" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>ЧТ</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B16" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>Элективные дисциплины по физической культуре и спорту: ЛБ/ПР (2)</t>
         </is>
       </c>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="6" t="n"/>
-      <c r="G15" s="4" t="inlineStr">
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="6" t="n"/>
+      <c r="G16" s="4" t="inlineStr">
         <is>
           <t>Элективные дисциплины по физической культуре и спорту: ЛБ/ПР (2)
 Информатика: ЛБ (1)</t>
         </is>
       </c>
-      <c r="H15" s="6" t="n"/>
-      <c r="I15" s="3" t="inlineStr">
+      <c r="H16" s="6" t="n"/>
+      <c r="I16" s="3" t="inlineStr">
         <is>
           <t>ФЗК_зал
 314</t>
         </is>
       </c>
-      <c r="J15" s="3" t="inlineStr">
+      <c r="J16" s="3" t="inlineStr">
         <is>
           <t>Чащихин А.В.
 Бикбулатова Н.Г.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="34" customHeight="1">
-      <c r="A16" s="7" t="n"/>
-      <c r="B16" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>10:15 - 11:50</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="inlineStr">
-        <is>
-          <t>Дискретная математика: ПР (общ)</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="5" t="n"/>
-      <c r="H16" s="6" t="n"/>
-      <c r="I16" s="3" t="n">
-        <v>208</v>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>Тутынина О.И.</t>
         </is>
       </c>
     </row>
     <row r="17" ht="34" customHeight="1">
       <c r="A17" s="7" t="n"/>
       <c r="B17" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>12:35 - 14:10</t>
+          <t>10:15 - 11:50</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Основы построения инфокоммуникационных систем и сетей: ПР (общ)</t>
+          <t>Дискретная математика: ПР (общ)</t>
         </is>
       </c>
       <c r="E17" s="5" t="n"/>
@@ -2783,193 +2825,216 @@
       <c r="G17" s="5" t="n"/>
       <c r="H17" s="6" t="n"/>
       <c r="I17" s="3" t="n">
+        <v>208</v>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>Тутынина О.И.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="34" customHeight="1">
+      <c r="A18" s="7" t="n"/>
+      <c r="B18" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>12:35 - 14:10</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>Основы построения инфокоммуникационных систем и сетей: ПР (общ)</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="n"/>
+      <c r="F18" s="5" t="n"/>
+      <c r="G18" s="5" t="n"/>
+      <c r="H18" s="6" t="n"/>
+      <c r="I18" s="3" t="n">
         <v>401</v>
       </c>
-      <c r="J17" s="3" t="inlineStr">
+      <c r="J18" s="3" t="inlineStr">
         <is>
           <t>Кусайкин Д.В.</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="34" customHeight="1">
-      <c r="A18" s="10" t="n"/>
-      <c r="B18" s="11" t="n">
+    <row r="19" ht="51" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C18" s="11" t="inlineStr">
+      <c r="C19" s="11" t="inlineStr">
         <is>
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D18" s="16" t="n"/>
-      <c r="E18" s="18" t="n"/>
-      <c r="F18" s="18" t="n"/>
-      <c r="G18" s="18" t="n"/>
-      <c r="H18" s="12" t="inlineStr">
-        <is>
-          <t>Инженерная и компьютерная графика: ПР (2)</t>
-        </is>
-      </c>
-      <c r="I18" s="11" t="n">
-        <v>331</v>
-      </c>
-      <c r="J18" s="11" t="inlineStr">
-        <is>
-          <t>Молокова Г.Ф.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="34" customHeight="1">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="D19" s="12" t="inlineStr">
+        <is>
+          <t>ЧАС куратора: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
+      <c r="G19" s="14" t="n"/>
+      <c r="H19" s="12" t="inlineStr">
+        <is>
+          <t>Инженерная и компьютерная графика: ПР (2)
+ЧАС куратора: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="I19" s="11" t="inlineStr">
+        <is>
+          <t>331
+403</t>
+        </is>
+      </c>
+      <c r="J19" s="11" t="inlineStr">
+        <is>
+          <t>Молокова Г.Ф.
+Плотникова Е.Л.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="34" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>ПТ</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B20" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>Физика (спецглавы): ЛБ (2)</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr">
         <is>
           <t>Физика (спецглавы): ЛБ (3)</t>
         </is>
       </c>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="6" t="n"/>
-      <c r="H19" s="15" t="n"/>
-      <c r="I19" s="3" t="inlineStr">
-        <is>
-          <t>ФЗК_зал</t>
-        </is>
-      </c>
-      <c r="J19" s="3" t="inlineStr">
-        <is>
-          <t>Кандазали Л.С.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="34" customHeight="1">
-      <c r="A20" s="7" t="n"/>
-      <c r="B20" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>10:15 - 11:50</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>Математический анализ: ПР (общ)</t>
-        </is>
-      </c>
-      <c r="E20" s="5" t="n"/>
       <c r="F20" s="5" t="n"/>
       <c r="G20" s="6" t="n"/>
       <c r="H20" s="15" t="n"/>
-      <c r="I20" s="3" t="n">
-        <v>407</v>
-      </c>
-      <c r="J20" s="9" t="n"/>
-    </row>
-    <row r="21" ht="51" customHeight="1">
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>ФЗК_зал</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>Кандазали Л.С.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="34" customHeight="1">
       <c r="A21" s="7" t="n"/>
       <c r="B21" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>12:35 - 14:10</t>
+          <t>10:15 - 11:50</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>Физика (спецглавы): ПР (общ)</t>
-        </is>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>Иностранный язык: ПР (2)</t>
-        </is>
-      </c>
+          <t>Математический анализ: ПР (общ)</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="n"/>
       <c r="F21" s="5" t="n"/>
       <c r="G21" s="6" t="n"/>
       <c r="H21" s="15" t="n"/>
       <c r="I21" s="3" t="n">
+        <v>407</v>
+      </c>
+      <c r="J21" s="9" t="n"/>
+    </row>
+    <row r="22" ht="51" customHeight="1">
+      <c r="A22" s="7" t="n"/>
+      <c r="B22" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>12:35 - 14:10</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>Физика (спецглавы): ПР (общ)</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>Иностранный язык: ПР (2)</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="n"/>
+      <c r="G22" s="6" t="n"/>
+      <c r="H22" s="15" t="n"/>
+      <c r="I22" s="3" t="n">
         <v>237</v>
       </c>
-      <c r="J21" s="3" t="inlineStr">
+      <c r="J22" s="3" t="inlineStr">
         <is>
           <t>Пилипенко Г.И.
 Дубровина Н.А.</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="34" customHeight="1">
-      <c r="A22" s="10" t="n"/>
-      <c r="B22" s="11" t="n">
+    <row r="23" ht="34" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C22" s="11" t="inlineStr">
+      <c r="C23" s="11" t="inlineStr">
         <is>
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D22" s="12" t="inlineStr">
+      <c r="D23" s="12" t="inlineStr">
         <is>
           <t>Элективные дисциплины по физической культуре и спорту: ПР (1)</t>
         </is>
       </c>
-      <c r="E22" s="13" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="14" t="n"/>
-      <c r="H22" s="16" t="n"/>
-      <c r="I22" s="11" t="inlineStr">
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
+      <c r="G23" s="14" t="n"/>
+      <c r="H23" s="16" t="n"/>
+      <c r="I23" s="11" t="inlineStr">
         <is>
           <t>ФЗК_зал</t>
         </is>
       </c>
-      <c r="J22" s="11" t="inlineStr">
+      <c r="J23" s="11" t="inlineStr">
         <is>
           <t>Чащихин А.В.</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="34" customHeight="1">
-      <c r="A23" s="2" t="inlineStr">
+    <row r="24" ht="34" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>СБ</t>
         </is>
       </c>
-      <c r="B23" s="17" t="n">
+      <c r="B24" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="17" t="inlineStr">
+      <c r="C24" s="17" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
-        </is>
-      </c>
-      <c r="D23" s="15" t="n"/>
-      <c r="I23" s="17" t="n"/>
-      <c r="J23" s="17" t="n"/>
-    </row>
-    <row r="24" ht="34" customHeight="1">
-      <c r="A24" s="7" t="n"/>
-      <c r="B24" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C24" s="17" t="inlineStr">
-        <is>
-          <t>10:15 - 11:50</t>
         </is>
       </c>
       <c r="D24" s="15" t="n"/>
@@ -2977,70 +3042,85 @@
       <c r="J24" s="17" t="n"/>
     </row>
     <row r="25" ht="34" customHeight="1">
-      <c r="A25" s="10" t="n"/>
-      <c r="B25" s="11" t="n">
+      <c r="A25" s="7" t="n"/>
+      <c r="B25" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="17" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D25" s="15" t="n"/>
+      <c r="I25" s="17" t="n"/>
+      <c r="J25" s="17" t="n"/>
+    </row>
+    <row r="26" ht="34" customHeight="1">
+      <c r="A26" s="10" t="n"/>
+      <c r="B26" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C25" s="11" t="inlineStr">
+      <c r="C26" s="11" t="inlineStr">
         <is>
           <t>12:00 - 13:40</t>
         </is>
       </c>
-      <c r="D25" s="12" t="inlineStr">
+      <c r="D26" s="12" t="inlineStr">
         <is>
           <t>Иностранный язык: ПР (3)</t>
         </is>
       </c>
-      <c r="E25" s="13" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="13" t="n"/>
-      <c r="H25" s="14" t="n"/>
-      <c r="I25" s="11" t="n">
+      <c r="E26" s="13" t="n"/>
+      <c r="F26" s="13" t="n"/>
+      <c r="G26" s="13" t="n"/>
+      <c r="H26" s="14" t="n"/>
+      <c r="I26" s="11" t="n">
         <v>205</v>
       </c>
-      <c r="J25" s="11" t="inlineStr">
+      <c r="J26" s="11" t="inlineStr">
         <is>
           <t>Миннегалиева Т.В.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D9:H9"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="D23:G23"/>
     <mergeCell ref="D24:H24"/>
     <mergeCell ref="D25:H25"/>
-    <mergeCell ref="E13:G14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="E14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3652,7 +3732,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="34" customHeight="1">
+    <row r="19" ht="51" customHeight="1">
       <c r="A19" s="10" t="n"/>
       <c r="B19" s="11" t="n">
         <v>4</v>
@@ -3662,20 +3742,33 @@
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D19" s="16" t="n"/>
+      <c r="D19" s="12" t="inlineStr">
+        <is>
+          <t>ЧАС куратора: рейд (общ)</t>
+        </is>
+      </c>
       <c r="E19" s="12" t="inlineStr">
         <is>
-          <t>Инженерная и компьютерная графика: ПР (2)</t>
+          <t>Инженерная и компьютерная графика: ПР (2)
+ЧАС куратора: рейд (общ)</t>
         </is>
       </c>
       <c r="F19" s="14" t="n"/>
-      <c r="G19" s="16" t="n"/>
-      <c r="H19" s="11" t="n">
-        <v>331</v>
+      <c r="G19" s="12" t="inlineStr">
+        <is>
+          <t>ЧАС куратора: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="H19" s="11" t="inlineStr">
+        <is>
+          <t>331
+403</t>
+        </is>
       </c>
       <c r="I19" s="11" t="inlineStr">
         <is>
-          <t>Молокова Г.Ф.</t>
+          <t>Молокова Г.Ф.
+Плотникова Е.Л.</t>
         </is>
       </c>
     </row>
